--- a/Journal.xlsx
+++ b/Journal.xlsx
@@ -2,18 +2,18 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wrok\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kush-sg\Excel-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18557" windowHeight="8735"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Trading" sheetId="1" r:id="rId1"/>
+    <sheet name="Learnings" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
   <si>
     <t>S.No</t>
   </si>
@@ -99,40 +99,27 @@
     <t>30min</t>
   </si>
   <si>
-    <t>11-25-2021</t>
-  </si>
-  <si>
-    <t>11-30-2021</t>
-  </si>
-  <si>
-    <t>12-16-2021</t>
-  </si>
-  <si>
-    <t>12-23-2021</t>
-  </si>
-  <si>
-    <t>12-28-2021</t>
-  </si>
-  <si>
-    <t>12-29-2021</t>
-  </si>
-  <si>
-    <t>12-31-2021</t>
-  </si>
-  <si>
     <t xml:space="preserve">EQUITY </t>
+  </si>
+  <si>
+    <t>Learnings during project</t>
+  </si>
+  <si>
+    <t>Automatic updation of Time when S.no added in (Trading Sheet)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="3">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="[$-14009]dd\ mmmm\ yyyy;@"/>
     <numFmt numFmtId="165" formatCode="[$-14009]dd/mm/yyyy;@"/>
-    <numFmt numFmtId="171" formatCode="&quot;₹&quot;\ #,##0"/>
+    <numFmt numFmtId="166" formatCode="&quot;₹&quot;\ #,##0"/>
+    <numFmt numFmtId="172" formatCode="d\ mmm\ yy"/>
+    <numFmt numFmtId="174" formatCode="yyyy"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,6 +170,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -222,7 +216,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -235,14 +229,8 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -251,10 +239,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -263,15 +251,66 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="172" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="13">
+    <dxf>
+      <numFmt numFmtId="166" formatCode="&quot;₹&quot;\ #,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="&quot;₹&quot;\ #,##0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="&quot;₹&quot;\ #,##0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C6500"/>
@@ -279,16 +318,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -304,11 +333,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C6500"/>
+        <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -342,44 +371,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <numFmt numFmtId="171" formatCode="&quot;₹&quot;\ #,##0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="171" formatCode="&quot;₹&quot;\ #,##0"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="171" formatCode="&quot;₹&quot;\ #,##0"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -397,16 +388,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>767737</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>8614</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>94889</xdr:rowOff>
+      <xdr:rowOff>103515</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>77624</xdr:colOff>
+      <xdr:colOff>155263</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>87783</xdr:rowOff>
+      <xdr:rowOff>96409</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -454,7 +445,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1414718" y="94889"/>
+          <a:off x="1380214" y="103515"/>
           <a:ext cx="664234" cy="536358"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -468,17 +459,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="C5:M13" totalsRowShown="0" headerRowDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="C5:M13" totalsRowShown="0" headerRowDxfId="6">
   <tableColumns count="11">
-    <tableColumn id="1" name="S.No" dataDxfId="13"/>
-    <tableColumn id="2" name="Script" dataDxfId="12"/>
-    <tableColumn id="3" name="Entry Price" dataDxfId="11"/>
-    <tableColumn id="4" name="Quantity" dataDxfId="10"/>
+    <tableColumn id="1" name="S.No" dataDxfId="5"/>
+    <tableColumn id="2" name="Script" dataDxfId="4"/>
+    <tableColumn id="3" name="Entry Price" dataDxfId="3"/>
+    <tableColumn id="4" name="Quantity" dataDxfId="2"/>
     <tableColumn id="5" name="Time Frame"/>
     <tableColumn id="6" name="Risk Taken"/>
     <tableColumn id="7" name="Target Price"/>
-    <tableColumn id="8" name="Exit Price" dataDxfId="9"/>
-    <tableColumn id="9" name="Profit/Loss" dataDxfId="7">
+    <tableColumn id="8" name="Exit Price" dataDxfId="1"/>
+    <tableColumn id="9" name="Profit/Loss" dataDxfId="0">
       <calculatedColumnFormula>Table4[[#This Row],[Exit Price]]-Table4[[#This Row],[Entry Price]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="10" name="Why Exit?"/>
@@ -754,21 +745,21 @@
   <dimension ref="A1:S51"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.125" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" style="17" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.5" customWidth="1"/>
     <col min="4" max="4" width="14.75" customWidth="1"/>
-    <col min="5" max="5" width="13.125" style="13" customWidth="1"/>
+    <col min="5" max="5" width="13.125" style="11" customWidth="1"/>
     <col min="6" max="6" width="11.25" customWidth="1"/>
     <col min="7" max="7" width="14.375" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
     <col min="9" max="9" width="14.125" customWidth="1"/>
-    <col min="10" max="11" width="13.25" style="8" customWidth="1"/>
+    <col min="10" max="11" width="13.25" style="6" customWidth="1"/>
     <col min="12" max="12" width="12.25" customWidth="1"/>
     <col min="13" max="13" width="17.75" customWidth="1"/>
   </cols>
@@ -776,91 +767,91 @@
     <row r="1" spans="1:19" ht="14.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
+      <c r="C1" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
+      <c r="A2" s="14">
         <f ca="1">NOW()</f>
-        <v>44767.70838113426</v>
-      </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="15"/>
+        <v>44768.446534027775</v>
+      </c>
+      <c r="B2" s="14"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15"/>
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="13"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
     </row>
     <row r="5" spans="1:19" ht="16.3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -896,455 +887,466 @@
       <c r="K5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="14" t="s">
+      <c r="L5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="M5" s="14" t="s">
+      <c r="M5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="14"/>
-      <c r="S5" s="14"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
     </row>
     <row r="6" spans="1:19" ht="16.3" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="str">
         <f>IF(Table4[[#This Row],[Exit Price]]&gt;0,"Booked","Running")</f>
         <v>Booked</v>
       </c>
-      <c r="B6" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="11">
+      <c r="B6" s="16">
+        <v>44525</v>
+      </c>
+      <c r="C6" s="9">
         <v>1</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="10">
         <v>490.05</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="9">
         <v>7</v>
       </c>
       <c r="G6" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="9">
+      <c r="J6" s="7">
         <v>469.2</v>
       </c>
-      <c r="K6" s="8">
+      <c r="K6" s="6">
         <f>Table4[[#This Row],[Exit Price]]-Table4[[#This Row],[Entry Price]]</f>
         <v>-20.850000000000023</v>
       </c>
+      <c r="N6" s="20"/>
     </row>
     <row r="7" spans="1:19" ht="16.3" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="str">
         <f>IF(Table4[[#This Row],[Exit Price]]&gt;0,"Booked","Running")</f>
         <v>Booked</v>
       </c>
-      <c r="B7" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="11">
+      <c r="B7" s="16">
+        <v>44530</v>
+      </c>
+      <c r="C7" s="9">
         <v>2</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="10">
         <v>888</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="9">
         <v>17</v>
       </c>
       <c r="G7" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J7" s="7">
         <v>902</v>
       </c>
-      <c r="K7" s="8">
+      <c r="K7" s="6">
         <f>Table4[[#This Row],[Exit Price]]-Table4[[#This Row],[Entry Price]]</f>
         <v>14</v>
       </c>
+      <c r="N7" s="20"/>
     </row>
     <row r="8" spans="1:19" ht="16.3" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="str">
         <f>IF(Table4[[#This Row],[Exit Price]]&gt;0,"Booked","Running")</f>
         <v>Booked</v>
       </c>
-      <c r="B8" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="11">
+      <c r="B8" s="16">
+        <v>44546</v>
+      </c>
+      <c r="C8" s="9">
         <v>3</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="10">
         <v>726.15</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="9">
         <v>8</v>
       </c>
       <c r="G8" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="9">
+      <c r="J8" s="7">
         <v>717</v>
       </c>
-      <c r="K8" s="8">
+      <c r="K8" s="6">
         <f>Table4[[#This Row],[Exit Price]]-Table4[[#This Row],[Entry Price]]</f>
         <v>-9.1499999999999773</v>
       </c>
+      <c r="N8" s="20"/>
     </row>
     <row r="9" spans="1:19" ht="16.3" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="str">
         <f>IF(Table4[[#This Row],[Exit Price]]&gt;0,"Booked","Running")</f>
         <v>Booked</v>
       </c>
-      <c r="B9" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="11">
+      <c r="B9" s="16">
+        <v>44553</v>
+      </c>
+      <c r="C9" s="9">
         <v>4</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="10">
         <v>202.35</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="9">
         <v>100</v>
       </c>
       <c r="G9" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="9">
+      <c r="J9" s="7">
         <v>208.7</v>
       </c>
-      <c r="K9" s="8">
+      <c r="K9" s="6">
         <f>Table4[[#This Row],[Exit Price]]-Table4[[#This Row],[Entry Price]]</f>
         <v>6.3499999999999943</v>
       </c>
+      <c r="N9" s="20"/>
     </row>
     <row r="10" spans="1:19" ht="16.3" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="str">
         <f>IF(Table4[[#This Row],[Exit Price]]&gt;0,"Booked","Running")</f>
         <v>Booked</v>
       </c>
-      <c r="B10" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="11">
+      <c r="B10" s="16">
+        <v>44558</v>
+      </c>
+      <c r="C10" s="9">
         <v>5</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="10">
         <v>428.3</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="9">
         <v>29</v>
       </c>
       <c r="G10" t="s">
         <v>21</v>
       </c>
-      <c r="J10" s="9">
+      <c r="J10" s="7">
         <v>431.25</v>
       </c>
-      <c r="K10" s="8">
+      <c r="K10" s="6">
         <f>Table4[[#This Row],[Exit Price]]-Table4[[#This Row],[Entry Price]]</f>
         <v>2.9499999999999886</v>
       </c>
+      <c r="N10" s="20"/>
     </row>
     <row r="11" spans="1:19" ht="16.3" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="str">
         <f>IF(Table4[[#This Row],[Exit Price]]&gt;0,"Booked","Running")</f>
         <v>Booked</v>
       </c>
-      <c r="B11" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="11">
+      <c r="B11" s="16">
+        <v>44559</v>
+      </c>
+      <c r="C11" s="9">
         <v>6</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="10">
         <v>3701.1</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="9">
         <v>2</v>
       </c>
       <c r="G11" t="s">
         <v>22</v>
       </c>
-      <c r="J11" s="9">
+      <c r="J11" s="7">
         <v>3795.45</v>
       </c>
-      <c r="K11" s="8">
+      <c r="K11" s="6">
         <f>Table4[[#This Row],[Exit Price]]-Table4[[#This Row],[Entry Price]]</f>
         <v>94.349999999999909</v>
       </c>
+      <c r="N11" s="20"/>
     </row>
     <row r="12" spans="1:19" ht="16.3" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="str">
         <f>IF(Table4[[#This Row],[Exit Price]]&gt;0,"Booked","Running")</f>
         <v>Booked</v>
       </c>
-      <c r="B12" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="11">
+      <c r="B12" s="16">
+        <v>44559</v>
+      </c>
+      <c r="C12" s="9">
         <v>7</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="10">
         <v>3701.25</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="9">
         <v>1</v>
       </c>
       <c r="G12" t="s">
         <v>22</v>
       </c>
-      <c r="J12" s="9">
+      <c r="J12" s="7">
         <v>3795.45</v>
       </c>
-      <c r="K12" s="8">
+      <c r="K12" s="6">
         <f>Table4[[#This Row],[Exit Price]]-Table4[[#This Row],[Entry Price]]</f>
         <v>94.199999999999818</v>
       </c>
+      <c r="N12" s="20"/>
     </row>
     <row r="13" spans="1:19" ht="16.3" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="str">
         <f>IF(Table4[[#This Row],[Exit Price]]&gt;0,"Booked","Running")</f>
         <v>Booked</v>
       </c>
-      <c r="B13" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="11">
+      <c r="B13" s="16">
+        <v>44561</v>
+      </c>
+      <c r="C13" s="9">
         <v>8</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="10">
         <v>15</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="9">
         <v>100</v>
       </c>
       <c r="G13" t="s">
         <v>23</v>
       </c>
-      <c r="J13" s="9">
+      <c r="J13" s="7">
         <v>15.15</v>
       </c>
-      <c r="K13" s="8">
+      <c r="K13" s="6">
         <f>Table4[[#This Row],[Exit Price]]-Table4[[#This Row],[Entry Price]]</f>
         <v>0.15000000000000036</v>
       </c>
+      <c r="N13" s="20"/>
     </row>
     <row r="14" spans="1:19" ht="16.3" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="11"/>
-      <c r="J14" s="9"/>
+      <c r="B14" s="16" t="str">
+        <f ca="1">IF(C14&lt;&gt;"",IF(B1&lt;&gt;"",B1,NOW()),"")</f>
+        <v/>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="9"/>
+      <c r="J14" s="7"/>
     </row>
     <row r="15" spans="1:19" ht="16.3" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="16"/>
-      <c r="C15" s="11"/>
+      <c r="C15" s="9"/>
     </row>
     <row r="16" spans="1:19" ht="16.3" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="16"/>
-      <c r="C16" s="11"/>
+      <c r="C16" s="9"/>
     </row>
     <row r="17" spans="1:3" ht="16.3" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="16"/>
-      <c r="C17" s="11"/>
+      <c r="C17" s="9"/>
     </row>
     <row r="18" spans="1:3" ht="16.3" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="16"/>
-      <c r="C18" s="11"/>
+      <c r="C18" s="9"/>
     </row>
     <row r="19" spans="1:3" ht="16.3" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="16"/>
-      <c r="C19" s="11"/>
+      <c r="C19" s="9"/>
     </row>
     <row r="20" spans="1:3" ht="16.3" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="16"/>
-      <c r="C20" s="11"/>
+      <c r="C20" s="9"/>
     </row>
     <row r="21" spans="1:3" ht="16.3" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="16"/>
-      <c r="C21" s="11"/>
+      <c r="C21" s="9"/>
     </row>
     <row r="22" spans="1:3" ht="16.3" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="16"/>
-      <c r="C22" s="11"/>
+      <c r="C22" s="9"/>
     </row>
     <row r="23" spans="1:3" ht="16.3" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="16"/>
-      <c r="C23" s="11"/>
+      <c r="C23" s="9"/>
     </row>
     <row r="24" spans="1:3" ht="16.3" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="16"/>
-      <c r="C24" s="11"/>
+      <c r="C24" s="9"/>
     </row>
     <row r="25" spans="1:3" ht="16.3" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="16"/>
-      <c r="C25" s="11"/>
+      <c r="C25" s="9"/>
     </row>
     <row r="26" spans="1:3" ht="16.3" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="16"/>
-      <c r="C26" s="11"/>
+      <c r="C26" s="9"/>
     </row>
     <row r="27" spans="1:3" ht="16.3" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="16"/>
-      <c r="C27" s="11"/>
+      <c r="C27" s="9"/>
     </row>
     <row r="28" spans="1:3" ht="16.3" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="16"/>
-      <c r="C28" s="11"/>
+      <c r="C28" s="9"/>
     </row>
     <row r="29" spans="1:3" ht="16.3" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="16"/>
-      <c r="C29" s="11"/>
+      <c r="C29" s="9"/>
     </row>
     <row r="30" spans="1:3" ht="16.3" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="16"/>
-      <c r="C30" s="11"/>
+      <c r="C30" s="9"/>
     </row>
     <row r="31" spans="1:3" ht="16.3" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="16"/>
-      <c r="C31" s="11"/>
+      <c r="C31" s="9"/>
     </row>
     <row r="32" spans="1:3" ht="16.3" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="16"/>
-      <c r="C32" s="11"/>
+      <c r="C32" s="9"/>
     </row>
     <row r="33" spans="1:3" ht="16.3" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="16"/>
-      <c r="C33" s="11"/>
+      <c r="C33" s="9"/>
     </row>
     <row r="34" spans="1:3" ht="16.3" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="16"/>
-      <c r="C34" s="11"/>
+      <c r="C34" s="9"/>
     </row>
     <row r="35" spans="1:3" ht="16.3" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="16"/>
-      <c r="C35" s="11"/>
+      <c r="C35" s="9"/>
     </row>
     <row r="36" spans="1:3" ht="16.3" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="16"/>
-      <c r="C36" s="11"/>
+      <c r="C36" s="9"/>
     </row>
     <row r="37" spans="1:3" ht="16.3" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="16"/>
-      <c r="C37" s="11"/>
+      <c r="C37" s="9"/>
     </row>
     <row r="38" spans="1:3" ht="16.3" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="16"/>
-      <c r="C38" s="11"/>
+      <c r="C38" s="9"/>
     </row>
     <row r="39" spans="1:3" ht="16.3" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="16"/>
-      <c r="C39" s="11"/>
+      <c r="C39" s="9"/>
     </row>
     <row r="40" spans="1:3" ht="16.3" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="16"/>
-      <c r="C40" s="11"/>
+      <c r="C40" s="9"/>
     </row>
     <row r="41" spans="1:3" ht="16.3" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="16"/>
-      <c r="C41" s="11"/>
+      <c r="C41" s="9"/>
     </row>
     <row r="42" spans="1:3" ht="16.3" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="16"/>
-      <c r="C42" s="11"/>
+      <c r="C42" s="9"/>
     </row>
     <row r="43" spans="1:3" ht="16.3" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="16"/>
-      <c r="C43" s="11"/>
+      <c r="C43" s="9"/>
     </row>
     <row r="44" spans="1:3" ht="16.3" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="16"/>
-      <c r="C44" s="11"/>
+      <c r="C44" s="9"/>
     </row>
     <row r="45" spans="1:3" ht="16.3" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="16"/>
-      <c r="C45" s="11"/>
+      <c r="C45" s="9"/>
     </row>
     <row r="46" spans="1:3" ht="16.3" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="16"/>
-      <c r="C46" s="11"/>
+      <c r="C46" s="9"/>
     </row>
     <row r="47" spans="1:3" ht="16.3" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="16"/>
-      <c r="C47" s="11"/>
+      <c r="C47" s="9"/>
     </row>
     <row r="48" spans="1:3" ht="16.3" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" s="16"/>
-      <c r="C48" s="11"/>
+      <c r="C48" s="9"/>
     </row>
     <row r="49" spans="1:3" ht="16.3" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="16"/>
-      <c r="C49" s="11"/>
+      <c r="C49" s="9"/>
     </row>
     <row r="50" spans="1:3" ht="16.3" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="16"/>
-      <c r="C50" s="11"/>
+      <c r="C50" s="9"/>
     </row>
     <row r="51" spans="1:3" ht="16.3" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
@@ -1355,28 +1357,28 @@
     <mergeCell ref="C1:M4"/>
   </mergeCells>
   <conditionalFormatting sqref="A6:A51">
-    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="Running">
+    <cfRule type="containsText" dxfId="12" priority="6" operator="containsText" text="Running">
       <formula>NOT(ISERROR(SEARCH("Running",A6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="Booked">
+    <cfRule type="containsText" dxfId="11" priority="5" operator="containsText" text="Booked">
       <formula>NOT(ISERROR(SEARCH("Booked",A6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:A1048576">
-    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="Running">
+    <cfRule type="containsText" dxfId="10" priority="4" operator="containsText" text="Running">
       <formula>NOT(ISERROR(SEARCH("Running",A6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:K1048576">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:K13">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1391,12 +1393,42 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="19">
+        <v>1</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>